--- a/biology/Zoologie/Archaeometa_nephilina/Archaeometa_nephilina.xlsx
+++ b/biology/Zoologie/Archaeometa_nephilina/Archaeometa_nephilina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archaeometidae, Archaeometa
 Archaeometa nephilina, unique représentant du genre Archaeometa et de la famille des Archaeometidae, est une espèce fossile d'opilions.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été découverte en Angleterre à Coseley, près de Dudley[1]. Elle date du Carbonifère.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été découverte en Angleterre à Coseley, près de Dudley. Elle date du Carbonifère.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype mesure 10 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mesure 10 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pocock, 1911 : « A monograph of the terrestrial Carboniferous Arachnida of Great Britain. » Monographs of the Palaeontographical Society, no 64, p. 1–84 (texte intégral (en)).
 Petrunkevitch, 1949 : « A study of Palaeozoic Arachnida. » Transactions of the Connecticut Academy of Arts and Sciences, vol. 37, p. 69–315.</t>
